--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -196,6 +197,87 @@
   <si>
     <t>如果所做的类没有很强的通用性（即在其他软件中很难用到本类），可以在类名前加上My</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学在工大-API文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员变量名或方法签名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值含义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>参数6</t>
+  </si>
+  <si>
+    <t>参数7</t>
+  </si>
+  <si>
+    <t>参数8</t>
+  </si>
+  <si>
+    <t>MyExpression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true为读取成功，false为表达式有误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要读取的表达式字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊记号如下：(下标^上标)，int=∫，sum=∑，-&gt;=→，&lt;-=←</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式的字符串形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String toString()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BufferedImage toImage(String filename)</t>
+  </si>
+  <si>
+    <t>表达式的图片形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此图片作为文件保存的文件名（不含扩展名，默认为jpg）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -548,11 +630,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="12" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -94,7 +89,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>yExpression</t>
@@ -279,18 +273,53 @@
     <t>此图片作为文件保存的文件名（不含扩展名，默认为jpg）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>String FileToMD5(File f)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件对应的MD5值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要转换的文件对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String FileToMD5(String path)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要转换的文件的绝对路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String StringToMD5(String str)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串对应的MD5值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要转换的字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5Tools(成员方法皆静态)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -301,21 +330,17 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -356,14 +381,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -410,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -445,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -622,34 +639,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="69.375" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="12" width="32.77734375" customWidth="1"/>
+    <col min="4" max="12" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -687,7 +704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -704,7 +721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
         <v>60</v>
       </c>
@@ -712,7 +729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>61</v>
       </c>
@@ -721,6 +738,42 @@
       </c>
       <c r="D5" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -731,22 +784,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="97" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +809,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -776,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -794,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -812,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -832,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -850,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -868,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -878,7 +931,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -894,7 +947,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -906,7 +959,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -918,7 +971,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -926,7 +979,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -934,7 +987,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -942,7 +995,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -952,7 +1005,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -964,7 +1017,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -974,7 +1027,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
@@ -984,7 +1037,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -996,7 +1049,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>31</v>
@@ -1006,7 +1059,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -1016,7 +1069,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>33</v>
@@ -1026,7 +1079,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -1036,7 +1089,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>35</v>
@@ -1046,7 +1099,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>36</v>
@@ -1056,7 +1109,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>37</v>
@@ -1066,7 +1119,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>38</v>
@@ -1076,7 +1129,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1088,7 +1141,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -1098,7 +1151,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>41</v>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -309,12 +309,91 @@
     <t>MD5Tools(成员方法皆静态)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AudioTools（成员方法皆静态）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean startCapture()</t>
+  </si>
+  <si>
+    <t>true为开始或正在录音，false为录音失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String stopAndSaveCapture()</t>
+  </si>
+  <si>
+    <t>录音文件的MD5值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void playAudio(String filepath,stopListener mysl)</t>
+  </si>
+  <si>
+    <t>void playAudio(File audioFile,stopListener mysl)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要播放的文件绝对路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要播放的文件对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止监听器，播放完毕或被中止时调用其中的stop()方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void stopAudio()</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于停止播放或停止录音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前仅能保存为wav文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前可播放wav或mp3文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void stop()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopListener（接口）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +460,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -639,34 +726,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="69.375" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="12" width="32.75" customWidth="1"/>
+    <col min="4" max="12" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -704,7 +791,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -721,7 +808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>60</v>
       </c>
@@ -729,7 +816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>61</v>
       </c>
@@ -740,7 +827,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -754,7 +841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -765,7 +852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -774,6 +861,84 @@
       </c>
       <c r="D8" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -784,22 +949,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="97" customWidth="1"/>
-    <col min="3" max="3" width="38.375" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +974,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -829,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -847,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -865,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -885,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -903,7 +1068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -921,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -931,7 +1096,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -947,7 +1112,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -959,7 +1124,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -971,7 +1136,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -979,7 +1144,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -987,7 +1152,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -995,7 +1160,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1170,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1182,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -1027,7 +1192,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>28</v>
@@ -1037,7 +1202,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -1049,7 +1214,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>31</v>
@@ -1059,7 +1224,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -1069,7 +1234,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>33</v>
@@ -1079,7 +1244,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -1089,7 +1254,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>35</v>
@@ -1099,7 +1264,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>36</v>
@@ -1109,7 +1274,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>37</v>
@@ -1119,7 +1284,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>38</v>
@@ -1129,7 +1294,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -1141,7 +1306,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -1151,7 +1316,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>41</v>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -388,12 +388,110 @@
     <t>stopListener（接口）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ChattingBox（未完成）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void setSize(int width,int height)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void pushMessage(MyMessage msg)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void pushAudio(MyMessage msg)</t>
+  </si>
+  <si>
+    <t>要显示的音频信息，详见MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushFile(MyMessage msg)</t>
+  </si>
+  <si>
+    <t>要显示的文件信息，详见MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要显示的消息内容，详见MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String userName</t>
+  </si>
+  <si>
+    <t>String messageTime</t>
+  </si>
+  <si>
+    <t>String message</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; pictures</t>
+  </si>
+  <si>
+    <t>发信用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容，音频或文件则填写文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中涉及的图片文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中涉及的图片文件名（可为null）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyMessage(String un,String mt,String m,ArrayList&lt;String&gt; p)</t>
+  </si>
+  <si>
+    <t>MyMessage(String un,String mt,String m)</t>
+  </si>
+  <si>
+    <t>构造方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +520,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -443,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,6 +559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -514,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -549,7 +655,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -734,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -939,6 +1045,128 @@
       </c>
       <c r="C14" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -484,6 +484,69 @@
   </si>
   <si>
     <t>消息内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void setQuestionID(String qID)</t>
+  </si>
+  <si>
+    <t>当前InputBox绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputBox需要绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getQuestionID()</t>
+  </si>
+  <si>
+    <t>void insertImage(File f)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要插入的图片文件对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void insertImage(String filepath)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要插入的图片路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void sendMessage()</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动清空文本框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>101</v>
       </c>
@@ -1086,7 +1149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>103</v>
       </c>
@@ -1097,7 +1160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -1108,7 +1171,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>108</v>
       </c>
@@ -1116,7 +1179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>109</v>
       </c>
@@ -1124,7 +1187,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>110</v>
       </c>
@@ -1132,7 +1195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>116</v>
       </c>
@@ -1152,7 +1215,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>117</v>
       </c>
@@ -1167,6 +1230,75 @@
       </c>
       <c r="F24" s="4" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -547,6 +547,21 @@
   </si>
   <si>
     <t>自动清空文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SegmentAPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String segment(String text)</t>
+  </si>
+  <si>
+    <t>分词结果，以空格隔开。空字符串表示访问错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要进行分词的句子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -903,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1314,20 @@
       </c>
       <c r="L30" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -562,6 +562,10 @@
   </si>
   <si>
     <t>要进行分词的句子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问阻塞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -920,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1328,6 +1332,9 @@
       </c>
       <c r="D31" s="4" t="s">
         <v>141</v>
+      </c>
+      <c r="L31" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -566,6 +566,28 @@
   </si>
   <si>
     <t>访问阻塞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void setColumns(int column)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列数（代表宽度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void search()</t>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1357,28 @@
       </c>
       <c r="L31" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -328,12 +328,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>void playAudio(String filepath,stopListener mysl)</t>
-  </si>
-  <si>
-    <t>void playAudio(File audioFile,stopListener mysl)</t>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -350,10 +344,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>停止监听器，播放完毕或被中止时调用其中的stop()方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>void stopAudio()</t>
   </si>
   <si>
@@ -377,29 +367,112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>void stop()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>ChattingBox（未完成）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void setSize(int width,int height)</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>stopListener（接口）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChattingBox（未完成）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void setSize(int width,int height)</t>
+    <t>宽度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void pushMessage(MyMessage msg)</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>void pushAudio(MyMessage msg)</t>
+  </si>
+  <si>
+    <t>要显示的音频信息，详见MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushFile(MyMessage msg)</t>
+  </si>
+  <si>
+    <t>要显示的文件信息，详见MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要显示的消息内容，详见MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String userName</t>
+  </si>
+  <si>
+    <t>String messageTime</t>
+  </si>
+  <si>
+    <t>String message</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; pictures</t>
+  </si>
+  <si>
+    <t>发信用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容，音频或文件则填写文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中涉及的图片文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息中涉及的图片文件名（可为null）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyMessage(String un,String mt,String m,ArrayList&lt;String&gt; p)</t>
+  </si>
+  <si>
+    <t>MyMessage(String un,String mt,String m)</t>
+  </si>
+  <si>
+    <t>构造方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发信用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>宽度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,186 +481,168 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>void pushMessage(MyMessage msg)</t>
+    <t>void setQuestionID(String qID)</t>
+  </si>
+  <si>
+    <t>当前InputBox绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputBox需要绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getQuestionID()</t>
+  </si>
+  <si>
+    <t>void insertImage(File f)</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>void pushAudio(MyMessage msg)</t>
-  </si>
-  <si>
-    <t>要显示的音频信息，详见MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pushFile(MyMessage msg)</t>
-  </si>
-  <si>
-    <t>要显示的文件信息，详见MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要显示的消息内容，详见MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String userName</t>
-  </si>
-  <si>
-    <t>String messageTime</t>
-  </si>
-  <si>
-    <t>String message</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;String&gt; pictures</t>
-  </si>
-  <si>
-    <t>发信用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容，音频或文件则填写文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中涉及的图片文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中涉及的图片文件名（可为null）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyMessage(String un,String mt,String m,ArrayList&lt;String&gt; p)</t>
-  </si>
-  <si>
-    <t>MyMessage(String un,String mt,String m)</t>
-  </si>
-  <si>
-    <t>构造方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>要插入的图片文件对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void insertImage(String filepath)</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void setQuestionID(String qID)</t>
-  </si>
-  <si>
-    <t>当前InputBox绑定的问题ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputBox需要绑定的问题ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String getQuestionID()</t>
-  </si>
-  <si>
-    <t>void insertImage(File f)</t>
+    <t>要插入的图片路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void sendMessage()</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>要插入的图片文件对象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void insertImage(String filepath)</t>
+    <t>自动清空文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SegmentAPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String segment(String text)</t>
+  </si>
+  <si>
+    <t>分词结果，以空格隔开。空字符串表示访问错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要进行分词的句子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问阻塞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void setColumns(int column)</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>要插入的图片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void sendMessage()</t>
+    <t>列数（代表宽度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void search()</t>
   </si>
   <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自动清空文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SegmentAPI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String segment(String text)</t>
-  </si>
-  <si>
-    <t>分词结果，以空格隔开。空字符串表示访问错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要进行分词的句子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问阻塞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearchBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void setColumns(int column)</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列数（代表宽度）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void search()</t>
-  </si>
-  <si>
-    <t>无</t>
+    <t>void playAudio(String filepath,Consumer&lt;String&gt; mysl)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>void playAudio(File audioFile,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Consumer&lt;String&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mysl)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>停止监听器，播放完毕或被中止时调用其中的a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ccept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String currentPlayingAudio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)方法</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止监听器，播放完毕或被中止时调用其中的accept(String currentPlayingAudio)方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -944,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1092,140 +1147,137 @@
         <v>77</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
+      <c r="E11" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
+      <c r="E12" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>93</v>
       </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
       <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1233,152 +1285,144 @@
         <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="4" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C30" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="L30" t="s">
         <v>136</v>
-      </c>
-      <c r="L30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>141</v>
       </c>
-      <c r="L31" t="s">
+      <c r="C32" s="4" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -408,60 +408,6 @@
   </si>
   <si>
     <t>要显示的消息内容，详见MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String userName</t>
-  </si>
-  <si>
-    <t>String messageTime</t>
-  </si>
-  <si>
-    <t>String message</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;String&gt; pictures</t>
-  </si>
-  <si>
-    <t>发信用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容，音频或文件则填写文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中涉及的图片文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中涉及的图片文件名（可为null）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyMessage(String un,String mt,String m,ArrayList&lt;String&gt; p)</t>
-  </si>
-  <si>
-    <t>MyMessage(String un,String mt,String m)</t>
-  </si>
-  <si>
-    <t>构造方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -643,6 +589,138 @@
   </si>
   <si>
     <t>停止监听器，播放完毕或被中止时调用其中的accept(String currentPlayingAudio)方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getExpressionAtCaret()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标所在的数学表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uestionMessage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionMessage(String id,String stem,String addition,String time,String owner,ArrayList&lt;Record&gt; records,boolean solved,int good)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionMessage(String id,String stem,String addition,String time,String owner,boolean solved,int good)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ecords留空</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有构造函数中出现属性的getter方法</t>
+  </si>
+  <si>
+    <t>Record getRecordAt(int index)</t>
+  </si>
+  <si>
+    <t>所请求下标处的Record对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void addRecord(Record record)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要添加的Record对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void addRecord(String user,String content,String time)</t>
+  </si>
+  <si>
+    <t>要添加的Record对象的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ecord</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record(String user,String content,String time,ArrayList&lt;String&gt; pictures)</t>
+  </si>
+  <si>
+    <t>Record(String user,String content,String time)</t>
+  </si>
+  <si>
+    <t>所有构造函数中出现属性的getter方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getPictureAt(int index)</t>
+  </si>
+  <si>
+    <t>所请求下标处的图片文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void addPicture(String picture)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要添加的图片文件名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1230,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
@@ -1161,7 +1239,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
         <v>86</v>
@@ -1169,7 +1247,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -1178,7 +1256,7 @@
         <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
         <v>87</v>
@@ -1250,179 +1328,209 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
-        <v>105</v>
+      <c r="D18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>113</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="L24" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="B25" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
+      <c r="A28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L29" t="s">
-        <v>131</v>
+      <c r="B29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L30" t="s">
-        <v>136</v>
+      <c r="B30" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="162">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -263,17 +263,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BufferedImage toImage(String filename)</t>
-  </si>
-  <si>
     <t>表达式的图片形式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>此图片作为文件保存的文件名（不含扩展名，默认为jpg）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>String FileToMD5(File f)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -386,31 +379,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>void pushMessage(MyMessage msg)</t>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>void pushAudio(MyMessage msg)</t>
-  </si>
-  <si>
-    <t>要显示的音频信息，详见MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pushFile(MyMessage msg)</t>
-  </si>
-  <si>
-    <t>要显示的文件信息，详见MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要显示的消息内容，详见MyMessage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>InputBox</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -431,10 +403,6 @@
   </si>
   <si>
     <t>当前InputBox绑定的问题ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputBox需要绑定的问题ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -721,6 +689,132 @@
   </si>
   <si>
     <t>要添加的图片文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void bindAndGetRecord(String questionID)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>void pushMessage(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> msg)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>void pushAudio(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> msg)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pushFile(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> msg)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>要显示的消息内容，详见R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ecord</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要显示的音频信息，详见Record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要显示的文件信息，详见Record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String toFile()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BufferedImage toImage()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式图片文件的文件名（含扩展名）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1160,377 +1254,393 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
         <v>78</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E15" t="s">
         <v>90</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="E14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
+      <c r="D16" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>97</v>
+      <c r="B17" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>101</v>
+      <c r="B18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L24" t="s">
+      <c r="D28" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="B31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>157</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -399,14 +399,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>void setQuestionID(String qID)</t>
-  </si>
-  <si>
     <t>当前InputBox绑定的问题ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String getQuestionID()</t>
   </si>
   <si>
     <t>void insertImage(File f)</t>
@@ -564,16 +558,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>光标所在的数学表达式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>光标所在的数学表达式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>q</t>
+    <r>
+      <t>void pushMessage(</t>
     </r>
     <r>
       <rPr>
@@ -583,21 +577,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>uestionMessage</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionMessage(String id,String stem,String addition,String time,String owner,ArrayList&lt;Record&gt; records,boolean solved,int good)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionMessage(String id,String stem,String addition,String time,String owner,boolean solved,int good)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
+      <t>Record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> msg)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>void pushAudio(</t>
     </r>
     <r>
       <rPr>
@@ -607,45 +602,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ecords留空</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有构造函数中出现属性的getter方法</t>
-  </si>
-  <si>
-    <t>Record getRecordAt(int index)</t>
-  </si>
-  <si>
-    <t>所请求下标处的Record对象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void addRecord(Record record)</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要添加的Record对象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void addRecord(String user,String content,String time)</t>
-  </si>
-  <si>
-    <t>要添加的Record对象的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
+      <t>Record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> msg)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>要显示的消息内容，详见R</t>
     </r>
     <r>
       <rPr>
@@ -660,47 +632,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Record(String user,String content,String time,ArrayList&lt;String&gt; pictures)</t>
-  </si>
-  <si>
-    <t>Record(String user,String content,String time)</t>
-  </si>
-  <si>
-    <t>所有构造函数中出现属性的getter方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String getPictureAt(int index)</t>
-  </si>
-  <si>
-    <t>所请求下标处的图片文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void addPicture(String picture)</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要添加的图片文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void bindAndGetRecord(String questionID)</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>void pushMessage(</t>
+    <t>要显示的音频信息，详见Record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要显示的文件信息，详见Record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要绑定的问题ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String toFile()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BufferedImage toImage()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式图片文件的文件名（含扩展名）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
     </r>
     <r>
       <rPr>
@@ -710,7 +677,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Record</t>
+      <t>pushFile(Record</t>
     </r>
     <r>
       <rPr>
@@ -724,8 +691,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>void pushAudio(</t>
+    <t>void bind(long questionID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -735,7 +706,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Record</t>
+      <t>ong</t>
     </r>
     <r>
       <rPr>
@@ -744,13 +715,20 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> msg)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pushFile(</t>
+      <t xml:space="preserve"> getQuestionID()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void requestQuestionRecord()</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>void setQuestionID(long q</t>
     </r>
     <r>
       <rPr>
@@ -760,7 +738,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Record</t>
+      <t>uestion</t>
     </r>
     <r>
       <rPr>
@@ -769,52 +747,23 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> msg)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>要显示的消息内容，详见R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ecord</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要显示的音频信息，详见Record</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要显示的文件信息，详见Record</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要绑定的问题ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要绑定的问题ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String toFile()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BufferedImage toImage()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表达式图片文件的文件名（含扩展名）</t>
+      <t>ID)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>static void dispatch(NetEvent e)</t>
+  </si>
+  <si>
+    <t>要分发的事件对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要分发的事件对象</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -891,6 +840,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1171,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1205,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1263,10 +1213,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1329,7 +1279,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -1338,7 +1288,7 @@
         <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
         <v>84</v>
@@ -1346,7 +1296,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1355,7 +1305,7 @@
         <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
         <v>85</v>
@@ -1391,256 +1341,193 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>153</v>
+      <c r="B18" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>125</v>
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" t="s">
         <v>105</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>127</v>
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>129</v>
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>148</v>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -357,10 +357,6 @@
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChattingBox（未完成）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -764,6 +760,56 @@
   </si>
   <si>
     <t>要分发的事件对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void sendAudio(String audioFile)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要发送的音频文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void sendFile(String filepath)</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要发送的文件路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChattingBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oid pushAnnouncement(String anno)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要发布的小型通知</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1121,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1251,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1213,10 +1259,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1279,7 +1325,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -1288,7 +1334,7 @@
         <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
         <v>84</v>
@@ -1296,7 +1342,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1305,7 +1351,7 @@
         <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
         <v>85</v>
@@ -1324,210 +1370,243 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>97</v>
+      <c r="B25" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L30" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/开发文档_API约定.xlsx
+++ b/开发文档_API约定.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="157">
   <si>
     <t>API文档书写格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -810,6 +810,22 @@
   </si>
   <si>
     <t>要发布的小型通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCRAPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String getStringFromPict(String pictpath)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字识别结果，由一行文字构成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要进行识别的图片地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1167,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1589,23 +1605,37 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>115</v>
       </c>
     </row>
